--- a/state_federal/state_federal_2015_2016.xlsx
+++ b/state_federal/state_federal_2015_2016.xlsx
@@ -574,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.17</v>
+        <v>0.112</v>
       </c>
       <c r="C2">
-        <v>5.051</v>
+        <v>2.882</v>
       </c>
       <c r="D2">
-        <v>0.744</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -588,13 +588,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.291</v>
+        <v>0.221</v>
       </c>
       <c r="C3">
-        <v>24.291</v>
+        <v>11.721</v>
       </c>
       <c r="D3">
-        <v>0.881</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -602,13 +602,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.196</v>
+        <v>0.153</v>
       </c>
       <c r="C4">
-        <v>7.108</v>
+        <v>4.754</v>
       </c>
       <c r="D4">
-        <v>0.769</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -616,13 +616,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.226</v>
+        <v>0.182</v>
       </c>
       <c r="C5">
-        <v>9.669</v>
+        <v>6.698</v>
       </c>
       <c r="D5">
-        <v>0.761</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -630,13 +630,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.24</v>
+        <v>0.176</v>
       </c>
       <c r="C6">
-        <v>11.75</v>
+        <v>6.493</v>
       </c>
       <c r="D6">
-        <v>0.768</v>
+        <v>0.809</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -644,13 +644,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.177</v>
+        <v>0.136</v>
       </c>
       <c r="C7">
-        <v>5.607</v>
+        <v>3.874</v>
       </c>
       <c r="D7">
-        <v>0.756</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -658,13 +658,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.206</v>
+        <v>0.166</v>
       </c>
       <c r="C8">
-        <v>7.701</v>
+        <v>5.61</v>
       </c>
       <c r="D8">
-        <v>0.74</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.224</v>
+        <v>0.17</v>
       </c>
       <c r="C9">
-        <v>9.768</v>
+        <v>5.684</v>
       </c>
       <c r="D9">
-        <v>0.785</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.272</v>
+        <v>0.216</v>
       </c>
       <c r="C10">
-        <v>16.445</v>
+        <v>9.952</v>
       </c>
       <c r="D10">
-        <v>0.755</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.151</v>
+        <v>0.109</v>
       </c>
       <c r="C11">
-        <v>4.214</v>
+        <v>2.925</v>
       </c>
       <c r="D11">
-        <v>0.75</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.191</v>
+        <v>0.15</v>
       </c>
       <c r="C12">
-        <v>6.442</v>
+        <v>4.516</v>
       </c>
       <c r="D12">
-        <v>0.747</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -728,13 +728,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.266</v>
+        <v>0.189</v>
       </c>
       <c r="C13">
-        <v>15.878</v>
+        <v>7.492</v>
       </c>
       <c r="D13">
-        <v>0.79</v>
+        <v>0.814</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -742,13 +742,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.215</v>
+        <v>0.172</v>
       </c>
       <c r="C14">
-        <v>8.654</v>
+        <v>5.946</v>
       </c>
       <c r="D14">
-        <v>0.769</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -756,13 +756,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.164</v>
+        <v>0.142</v>
       </c>
       <c r="C15">
-        <v>4.568</v>
+        <v>4.063</v>
       </c>
       <c r="D15">
-        <v>0.715</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -770,13 +770,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.196</v>
+        <v>0.145</v>
       </c>
       <c r="C16">
-        <v>6.888</v>
+        <v>4.29</v>
       </c>
       <c r="D16">
-        <v>0.751</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -784,13 +784,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.221</v>
+        <v>0.184</v>
       </c>
       <c r="C17">
-        <v>8.937</v>
+        <v>6.69</v>
       </c>
       <c r="D17">
-        <v>0.748</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.18</v>
+        <v>0.136</v>
       </c>
       <c r="C18">
-        <v>5.707</v>
+        <v>3.825</v>
       </c>
       <c r="D18">
-        <v>0.751</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -812,13 +812,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.213</v>
+        <v>0.143</v>
       </c>
       <c r="C19">
-        <v>8.332</v>
+        <v>4.217</v>
       </c>
       <c r="D19">
-        <v>0.759</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -826,13 +826,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.199</v>
+        <v>0.145</v>
       </c>
       <c r="C20">
-        <v>7.232</v>
+        <v>4.347</v>
       </c>
       <c r="D20">
-        <v>0.759</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -840,13 +840,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.202</v>
+        <v>0.153</v>
       </c>
       <c r="C21">
-        <v>7.256</v>
+        <v>4.659</v>
       </c>
       <c r="D21">
-        <v>0.748</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -854,13 +854,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.254</v>
+        <v>0.203</v>
       </c>
       <c r="C22">
-        <v>13.216</v>
+        <v>8.552</v>
       </c>
       <c r="D22">
-        <v>0.761</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -868,13 +868,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.257</v>
+        <v>0.199</v>
       </c>
       <c r="C23">
-        <v>14.261</v>
+        <v>8.355</v>
       </c>
       <c r="D23">
-        <v>0.768</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -882,13 +882,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.201</v>
+        <v>0.142</v>
       </c>
       <c r="C24">
-        <v>7.332</v>
+        <v>4.247</v>
       </c>
       <c r="D24">
-        <v>0.752</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -896,13 +896,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.213</v>
+        <v>0.162</v>
       </c>
       <c r="C25">
-        <v>8.448</v>
+        <v>5.264</v>
       </c>
       <c r="D25">
-        <v>0.756</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -910,13 +910,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="C26">
-        <v>7.289</v>
+        <v>4.11</v>
       </c>
       <c r="D26">
-        <v>0.761</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -924,13 +924,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.187</v>
+        <v>0.16</v>
       </c>
       <c r="C27">
-        <v>6.094</v>
+        <v>5.074</v>
       </c>
       <c r="D27">
-        <v>0.743</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -938,13 +938,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.209</v>
+        <v>0.142</v>
       </c>
       <c r="C28">
-        <v>8.116</v>
+        <v>4.266</v>
       </c>
       <c r="D28">
-        <v>0.769</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -952,13 +952,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.186</v>
+        <v>0.153</v>
       </c>
       <c r="C29">
-        <v>6.1</v>
+        <v>4.718</v>
       </c>
       <c r="D29">
-        <v>0.749</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -966,13 +966,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.137</v>
+        <v>0.091</v>
       </c>
       <c r="C30">
-        <v>3.609</v>
+        <v>2.339</v>
       </c>
       <c r="D30">
-        <v>0.76</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -980,13 +980,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.202</v>
+        <v>0.158</v>
       </c>
       <c r="C31">
-        <v>7.68</v>
+        <v>5.18</v>
       </c>
       <c r="D31">
-        <v>0.779</v>
+        <v>0.808</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -994,13 +994,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.202</v>
+        <v>0.175</v>
       </c>
       <c r="C32">
-        <v>7.071</v>
+        <v>6.101</v>
       </c>
       <c r="D32">
-        <v>0.726</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.252</v>
+        <v>0.21</v>
       </c>
       <c r="C33">
-        <v>13.708</v>
+        <v>9.223</v>
       </c>
       <c r="D33">
-        <v>0.796</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.248</v>
+        <v>0.172</v>
       </c>
       <c r="C34">
-        <v>12.334</v>
+        <v>5.954</v>
       </c>
       <c r="D34">
-        <v>0.735</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.201</v>
+        <v>0.159</v>
       </c>
       <c r="C35">
-        <v>7.241</v>
+        <v>5.062</v>
       </c>
       <c r="D35">
-        <v>0.751</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.158</v>
+        <v>0.114</v>
       </c>
       <c r="C36">
-        <v>4.505</v>
+        <v>2.871</v>
       </c>
       <c r="D36">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.2</v>
+        <v>0.165</v>
       </c>
       <c r="C37">
-        <v>7.077</v>
+        <v>5.49</v>
       </c>
       <c r="D37">
-        <v>0.74</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.174</v>
+        <v>0.135</v>
       </c>
       <c r="C38">
-        <v>5.402</v>
+        <v>3.882</v>
       </c>
       <c r="D38">
-        <v>0.755</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="C39">
-        <v>10.198</v>
+        <v>6.668</v>
       </c>
       <c r="D39">
-        <v>0.762</v>
+        <v>0.808</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.188</v>
+        <v>0.15</v>
       </c>
       <c r="C40">
-        <v>6.187</v>
+        <v>4.587</v>
       </c>
       <c r="D40">
-        <v>0.738</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.217</v>
+        <v>0.186</v>
       </c>
       <c r="C41">
-        <v>8.783</v>
+        <v>6.946</v>
       </c>
       <c r="D41">
-        <v>0.758</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.197</v>
+        <v>0.151</v>
       </c>
       <c r="C42">
-        <v>7.072</v>
+        <v>4.671</v>
       </c>
       <c r="D42">
-        <v>0.763</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.148</v>
+        <v>0.108</v>
       </c>
       <c r="C43">
-        <v>4.068</v>
+        <v>2.857</v>
       </c>
       <c r="D43">
-        <v>0.757</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.177</v>
+        <v>0.123</v>
       </c>
       <c r="C44">
-        <v>5.76</v>
+        <v>3.448</v>
       </c>
       <c r="D44">
-        <v>0.774</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.176</v>
+        <v>0.13</v>
       </c>
       <c r="C45">
-        <v>5.661</v>
+        <v>3.701</v>
       </c>
       <c r="D45">
-        <v>0.767</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1190,13 +1190,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.2</v>
+        <v>0.154</v>
       </c>
       <c r="C46">
-        <v>7.211</v>
+        <v>4.722</v>
       </c>
       <c r="D46">
-        <v>0.747</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.191</v>
+        <v>0.157</v>
       </c>
       <c r="C47">
-        <v>6.507</v>
+        <v>4.93</v>
       </c>
       <c r="D47">
-        <v>0.749</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.174</v>
+        <v>0.141</v>
       </c>
       <c r="C48">
-        <v>5.312</v>
+        <v>4.055</v>
       </c>
       <c r="D48">
-        <v>0.747</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.221</v>
+        <v>0.177</v>
       </c>
       <c r="C49">
-        <v>9.677</v>
+        <v>6.513</v>
       </c>
       <c r="D49">
-        <v>0.781</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.258</v>
+        <v>0.188</v>
       </c>
       <c r="C50">
-        <v>14.427</v>
+        <v>7.186</v>
       </c>
       <c r="D50">
-        <v>0.788</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1260,13 +1260,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.212</v>
+        <v>0.151</v>
       </c>
       <c r="C51">
-        <v>8.203</v>
+        <v>4.552</v>
       </c>
       <c r="D51">
-        <v>0.75</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.184</v>
+        <v>0.114</v>
       </c>
       <c r="C52">
-        <v>6.322</v>
+        <v>2.968</v>
       </c>
       <c r="D52">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
     </row>
   </sheetData>
@@ -1315,13 +1315,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.068</v>
+        <v>0.022</v>
       </c>
       <c r="C2">
-        <v>1.573</v>
+        <v>0.986</v>
       </c>
       <c r="D2">
-        <v>0.731</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1329,13 +1329,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.18</v>
+        <v>0.128</v>
       </c>
       <c r="C3">
-        <v>6.946</v>
+        <v>3.991</v>
       </c>
       <c r="D3">
-        <v>0.893</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1343,13 +1343,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.079</v>
+        <v>0.042</v>
       </c>
       <c r="C4">
-        <v>1.869</v>
+        <v>1.277</v>
       </c>
       <c r="D4">
-        <v>0.763</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1357,13 +1357,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.077</v>
+        <v>0.134</v>
       </c>
       <c r="C5">
-        <v>1.757</v>
+        <v>3.836</v>
       </c>
       <c r="D5">
-        <v>0.739</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1371,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.103</v>
+        <v>0.036</v>
       </c>
       <c r="C6">
-        <v>2.478</v>
+        <v>1.231</v>
       </c>
       <c r="D6">
-        <v>0.769</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1385,13 +1385,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.071</v>
+        <v>0.028</v>
       </c>
       <c r="C7">
-        <v>1.663</v>
+        <v>1.079</v>
       </c>
       <c r="D7">
-        <v>0.744</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1399,13 +1399,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.079</v>
+        <v>0.01</v>
       </c>
       <c r="C8">
-        <v>1.804</v>
+        <v>0.872</v>
       </c>
       <c r="D8">
-        <v>0.735</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1413,13 +1413,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.119</v>
+        <v>0.068</v>
       </c>
       <c r="C9">
-        <v>2.986</v>
+        <v>1.71</v>
       </c>
       <c r="D9">
-        <v>0.782</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1427,13 +1427,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0.064</v>
       </c>
       <c r="C10">
-        <v>2.339</v>
+        <v>1.644</v>
       </c>
       <c r="D10">
-        <v>0.754</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1441,13 +1441,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.049</v>
+        <v>0.009</v>
       </c>
       <c r="C11">
-        <v>1.311</v>
+        <v>0.877</v>
       </c>
       <c r="D11">
-        <v>0.749</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1455,13 +1455,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.072</v>
+        <v>0.044</v>
       </c>
       <c r="C12">
-        <v>1.654</v>
+        <v>1.303</v>
       </c>
       <c r="D12">
-        <v>0.734</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1469,13 +1469,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.136</v>
+        <v>0.063</v>
       </c>
       <c r="C13">
-        <v>3.654</v>
+        <v>1.691</v>
       </c>
       <c r="D13">
-        <v>0.788</v>
+        <v>0.807</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1483,13 +1483,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.102</v>
+        <v>0.069</v>
       </c>
       <c r="C14">
-        <v>2.394</v>
+        <v>1.785</v>
       </c>
       <c r="D14">
-        <v>0.759</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1497,13 +1497,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.053</v>
+        <v>0.011</v>
       </c>
       <c r="C15">
-        <v>1.282</v>
+        <v>0.86</v>
       </c>
       <c r="D15">
-        <v>0.704</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1511,13 +1511,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.069</v>
+        <v>0.021</v>
       </c>
       <c r="C16">
-        <v>1.602</v>
+        <v>0.984</v>
       </c>
       <c r="D16">
-        <v>0.734</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1525,13 +1525,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.097</v>
+        <v>0.089</v>
       </c>
       <c r="C17">
-        <v>2.171</v>
+        <v>2.195</v>
       </c>
       <c r="D17">
-        <v>0.731</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1539,13 +1539,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.079</v>
+        <v>0.032</v>
       </c>
       <c r="C18">
-        <v>1.804</v>
+        <v>1.124</v>
       </c>
       <c r="D18">
-        <v>0.741</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1553,13 +1553,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.093</v>
+        <v>0.037</v>
       </c>
       <c r="C19">
-        <v>2.121</v>
+        <v>1.213</v>
       </c>
       <c r="D19">
-        <v>0.745</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1567,13 +1567,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.081</v>
+        <v>0.024</v>
       </c>
       <c r="C20">
-        <v>1.901</v>
+        <v>1.034</v>
       </c>
       <c r="D20">
-        <v>0.759</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1581,13 +1581,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.095</v>
+        <v>0.044</v>
       </c>
       <c r="C21">
-        <v>2.152</v>
+        <v>1.294</v>
       </c>
       <c r="D21">
-        <v>0.739</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1595,13 +1595,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.124</v>
+        <v>0.064</v>
       </c>
       <c r="C22">
-        <v>3.033</v>
+        <v>1.665</v>
       </c>
       <c r="D22">
-        <v>0.753</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1609,13 +1609,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.088</v>
+        <v>0.022</v>
       </c>
       <c r="C23">
-        <v>2.058</v>
+        <v>1.027</v>
       </c>
       <c r="D23">
-        <v>0.757</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1623,13 +1623,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.067</v>
+        <v>0.007</v>
       </c>
       <c r="C24">
-        <v>1.592</v>
+        <v>0.855</v>
       </c>
       <c r="D24">
-        <v>0.745</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1637,13 +1637,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.094</v>
+        <v>0.022</v>
       </c>
       <c r="C25">
-        <v>2.191</v>
+        <v>1.01</v>
       </c>
       <c r="D25">
-        <v>0.755</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1651,13 +1651,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.079</v>
+        <v>0.039</v>
       </c>
       <c r="C26">
-        <v>1.844</v>
+        <v>1.235</v>
       </c>
       <c r="D26">
-        <v>0.755</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1665,13 +1665,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.085</v>
+        <v>0.054</v>
       </c>
       <c r="C27">
-        <v>1.927</v>
+        <v>1.459</v>
       </c>
       <c r="D27">
-        <v>0.74</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1679,13 +1679,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.097</v>
+        <v>0.025</v>
       </c>
       <c r="C28">
-        <v>2.282</v>
+        <v>1.059</v>
       </c>
       <c r="D28">
-        <v>0.765</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1693,13 +1693,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.072</v>
+        <v>0.058</v>
       </c>
       <c r="C29">
-        <v>1.657</v>
+        <v>1.527</v>
       </c>
       <c r="D29">
-        <v>0.736</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1707,13 +1707,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.042</v>
+        <v>0.005</v>
       </c>
       <c r="C30">
-        <v>1.212</v>
+        <v>0.843</v>
       </c>
       <c r="D30">
-        <v>0.752</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1721,13 +1721,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.095</v>
+        <v>0.032</v>
       </c>
       <c r="C31">
-        <v>2.288</v>
+        <v>1.178</v>
       </c>
       <c r="D31">
-        <v>0.78</v>
+        <v>0.809</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1735,13 +1735,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.099</v>
+        <v>0.034</v>
       </c>
       <c r="C32">
-        <v>2.225</v>
+        <v>1.159</v>
       </c>
       <c r="D32">
-        <v>0.729</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1749,13 +1749,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.115</v>
+        <v>0.102</v>
       </c>
       <c r="C33">
-        <v>2.885</v>
+        <v>2.608</v>
       </c>
       <c r="D33">
-        <v>0.787</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1763,13 +1763,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.086</v>
+        <v>0.007</v>
       </c>
       <c r="C34">
-        <v>1.935</v>
+        <v>0.831</v>
       </c>
       <c r="D34">
-        <v>0.728</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1777,13 +1777,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.081</v>
+        <v>0.042</v>
       </c>
       <c r="C35">
-        <v>1.857</v>
+        <v>1.273</v>
       </c>
       <c r="D35">
-        <v>0.745</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1791,13 +1791,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.084</v>
+        <v>0.017</v>
       </c>
       <c r="C36">
-        <v>1.958</v>
+        <v>0.911</v>
       </c>
       <c r="D36">
-        <v>0.76</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1805,13 +1805,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.088</v>
+        <v>0.038</v>
       </c>
       <c r="C37">
-        <v>1.995</v>
+        <v>1.219</v>
       </c>
       <c r="D37">
-        <v>0.739</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1819,13 +1819,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.068</v>
+        <v>0.034</v>
       </c>
       <c r="C38">
-        <v>1.623</v>
+        <v>1.176</v>
       </c>
       <c r="D38">
-        <v>0.752</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1833,13 +1833,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.105</v>
+        <v>0.054</v>
       </c>
       <c r="C39">
-        <v>2.449</v>
+        <v>1.521</v>
       </c>
       <c r="D39">
-        <v>0.75</v>
+        <v>0.808</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1847,13 +1847,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.069</v>
+        <v>0.028</v>
       </c>
       <c r="C40">
-        <v>1.6</v>
+        <v>1.082</v>
       </c>
       <c r="D40">
-        <v>0.733</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1861,13 +1861,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.095</v>
+        <v>0.037</v>
       </c>
       <c r="C41">
-        <v>2.212</v>
+        <v>1.197</v>
       </c>
       <c r="D41">
-        <v>0.757</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1875,13 +1875,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.082</v>
+        <v>0.07</v>
       </c>
       <c r="C42">
-        <v>1.906</v>
+        <v>1.789</v>
       </c>
       <c r="D42">
-        <v>0.755</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1889,13 +1889,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.055</v>
+        <v>0.022</v>
       </c>
       <c r="C43">
-        <v>1.407</v>
+        <v>1.016</v>
       </c>
       <c r="D43">
-        <v>0.753</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1903,13 +1903,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.078</v>
+        <v>0.023</v>
       </c>
       <c r="C44">
-        <v>1.866</v>
+        <v>1.046</v>
       </c>
       <c r="D44">
-        <v>0.77</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1917,13 +1917,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.066</v>
+        <v>0.02</v>
       </c>
       <c r="C45">
-        <v>1.607</v>
+        <v>0.992</v>
       </c>
       <c r="D45">
-        <v>0.76</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1931,13 +1931,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.06</v>
+        <v>0.032</v>
       </c>
       <c r="C46">
-        <v>1.451</v>
+        <v>1.115</v>
       </c>
       <c r="D46">
-        <v>0.735</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1945,13 +1945,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.081</v>
+        <v>0.083</v>
       </c>
       <c r="C47">
-        <v>1.867</v>
+        <v>2.051</v>
       </c>
       <c r="D47">
-        <v>0.746</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1959,13 +1959,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.082</v>
+        <v>0.033</v>
       </c>
       <c r="C48">
-        <v>1.873</v>
+        <v>1.135</v>
       </c>
       <c r="D48">
-        <v>0.743</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1973,13 +1973,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.063</v>
+        <v>0.03</v>
       </c>
       <c r="C49">
-        <v>1.588</v>
+        <v>1.128</v>
       </c>
       <c r="D49">
-        <v>0.775</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1987,13 +1987,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.14</v>
+        <v>0.07</v>
       </c>
       <c r="C50">
-        <v>3.771</v>
+        <v>1.794</v>
       </c>
       <c r="D50">
-        <v>0.778</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2001,13 +2001,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.082</v>
+        <v>0.017</v>
       </c>
       <c r="C51">
-        <v>1.847</v>
+        <v>0.929</v>
       </c>
       <c r="D51">
-        <v>0.732</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2015,13 +2015,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.041</v>
+        <v>0.006</v>
       </c>
       <c r="C52">
-        <v>1.229</v>
+        <v>0.811</v>
       </c>
       <c r="D52">
-        <v>0.768</v>
+        <v>0.755</v>
       </c>
     </row>
   </sheetData>
@@ -2059,16 +2059,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.025</v>
+        <v>-0.081</v>
       </c>
       <c r="C2">
-        <v>0.454</v>
+        <v>0.239</v>
       </c>
       <c r="D2">
-        <v>9518.08</v>
+        <v>15838.35</v>
       </c>
       <c r="E2">
-        <v>0.122</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2076,16 +2076,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.005</v>
+        <v>0.002</v>
       </c>
       <c r="C3">
-        <v>0.596</v>
+        <v>0.728</v>
       </c>
       <c r="D3">
-        <v>19160.93</v>
+        <v>18115.1</v>
       </c>
       <c r="E3">
-        <v>0.215</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2093,16 +2093,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.013</v>
+        <v>-0.088</v>
       </c>
       <c r="C4">
-        <v>0.532</v>
+        <v>0.207</v>
       </c>
       <c r="D4">
-        <v>11285.22</v>
+        <v>22924.1</v>
       </c>
       <c r="E4">
-        <v>0.133</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2110,16 +2110,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-0.06</v>
+        <v>0.094</v>
       </c>
       <c r="C5">
-        <v>0.274</v>
+        <v>2.212</v>
       </c>
       <c r="D5">
-        <v>14586.08</v>
+        <v>6564.09</v>
       </c>
       <c r="E5">
-        <v>0.19</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2127,16 +2127,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.009</v>
+        <v>-0.079</v>
       </c>
       <c r="C6">
-        <v>0.515</v>
+        <v>0.234</v>
       </c>
       <c r="D6">
-        <v>15346.21</v>
+        <v>24042.99</v>
       </c>
       <c r="E6">
-        <v>0.178</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2144,16 +2144,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.021</v>
+        <v>-0.083</v>
       </c>
       <c r="C7">
-        <v>0.474</v>
+        <v>0.23</v>
       </c>
       <c r="D7">
-        <v>10670.62</v>
+        <v>18778.42</v>
       </c>
       <c r="E7">
-        <v>0.129</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2161,16 +2161,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.017</v>
+        <v>-0.083</v>
       </c>
       <c r="C8">
-        <v>0.463</v>
+        <v>0.227</v>
       </c>
       <c r="D8">
-        <v>13094.87</v>
+        <v>19192.01</v>
       </c>
       <c r="E8">
-        <v>0.151</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2178,16 +2178,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.019</v>
+        <v>-0.032</v>
       </c>
       <c r="C9">
-        <v>0.476</v>
+        <v>0.447</v>
       </c>
       <c r="D9">
-        <v>12757.83</v>
+        <v>12656.1</v>
       </c>
       <c r="E9">
-        <v>0.165</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2195,16 +2195,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-0.037</v>
+        <v>-0.126</v>
       </c>
       <c r="C10">
-        <v>0.351</v>
+        <v>0.116</v>
       </c>
       <c r="D10">
-        <v>15905.25</v>
+        <v>28883.73</v>
       </c>
       <c r="E10">
-        <v>0.192</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2212,16 +2212,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.014</v>
+        <v>-0.06</v>
       </c>
       <c r="C11">
-        <v>0.534</v>
+        <v>0.323</v>
       </c>
       <c r="D11">
-        <v>9656.27</v>
+        <v>16001.11</v>
       </c>
       <c r="E11">
-        <v>0.105</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2229,16 +2229,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.024</v>
+        <v>-0.069</v>
       </c>
       <c r="C12">
-        <v>0.454</v>
+        <v>0.272</v>
       </c>
       <c r="D12">
-        <v>9869.78</v>
+        <v>17790.52</v>
       </c>
       <c r="E12">
-        <v>0.125</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2246,16 +2246,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.034</v>
+        <v>-0.064</v>
       </c>
       <c r="C13">
-        <v>0.378</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
-        <v>16711.13</v>
+        <v>18803.1</v>
       </c>
       <c r="E13">
-        <v>0.211</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2263,16 +2263,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.039</v>
+        <v>-0.083</v>
       </c>
       <c r="C14">
-        <v>0.366</v>
+        <v>0.222</v>
       </c>
       <c r="D14">
-        <v>13466.4</v>
+        <v>21548.53</v>
       </c>
       <c r="E14">
-        <v>0.174</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2280,16 +2280,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>-0.026</v>
+        <v>-0.091</v>
       </c>
       <c r="C15">
-        <v>0.431</v>
+        <v>0.2</v>
       </c>
       <c r="D15">
-        <v>9634.87</v>
+        <v>19016.57</v>
       </c>
       <c r="E15">
-        <v>0.118</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2297,16 +2297,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>-0.015</v>
+        <v>-0.085</v>
       </c>
       <c r="C16">
-        <v>0.51</v>
+        <v>0.221</v>
       </c>
       <c r="D16">
-        <v>9806.53</v>
+        <v>18791.09</v>
       </c>
       <c r="E16">
-        <v>0.121</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2314,16 +2314,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>-0.027</v>
+        <v>-0.069</v>
       </c>
       <c r="C17">
-        <v>0.42</v>
+        <v>0.253</v>
       </c>
       <c r="D17">
-        <v>10908.5</v>
+        <v>21921.82</v>
       </c>
       <c r="E17">
-        <v>0.146</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2331,16 +2331,16 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>-0.023</v>
+        <v>-0.056</v>
       </c>
       <c r="C18">
-        <v>0.459</v>
+        <v>0.337</v>
       </c>
       <c r="D18">
-        <v>10473.9</v>
+        <v>13122.41</v>
       </c>
       <c r="E18">
-        <v>0.134</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2348,16 +2348,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>-0.027</v>
+        <v>-0.045</v>
       </c>
       <c r="C19">
-        <v>0.424</v>
+        <v>0.395</v>
       </c>
       <c r="D19">
-        <v>11789.15</v>
+        <v>11568.32</v>
       </c>
       <c r="E19">
-        <v>0.154</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2365,16 +2365,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>-0.02</v>
+        <v>-0.091</v>
       </c>
       <c r="C20">
-        <v>0.475</v>
+        <v>0.207</v>
       </c>
       <c r="D20">
-        <v>11636.29</v>
+        <v>19273.82</v>
       </c>
       <c r="E20">
-        <v>0.14</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2382,16 +2382,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>-0.04</v>
+        <v>-0.092</v>
       </c>
       <c r="C21">
-        <v>0.352</v>
+        <v>0.202</v>
       </c>
       <c r="D21">
-        <v>12855.86</v>
+        <v>18997.35</v>
       </c>
       <c r="E21">
-        <v>0.167</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2399,16 +2399,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>-0.027</v>
+        <v>-0.098</v>
       </c>
       <c r="C22">
-        <v>0.402</v>
+        <v>0.179</v>
       </c>
       <c r="D22">
-        <v>14225.55</v>
+        <v>23514.23</v>
       </c>
       <c r="E22">
-        <v>0.188</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2416,16 +2416,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>-0.032</v>
+        <v>-0.099</v>
       </c>
       <c r="C23">
-        <v>0.387</v>
+        <v>0.183</v>
       </c>
       <c r="D23">
-        <v>15417.26</v>
+        <v>22506.28</v>
       </c>
       <c r="E23">
-        <v>0.179</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2433,16 +2433,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>-0.024</v>
+        <v>-0.084</v>
       </c>
       <c r="C24">
-        <v>0.448</v>
+        <v>0.233</v>
       </c>
       <c r="D24">
-        <v>11547.04</v>
+        <v>17288.86</v>
       </c>
       <c r="E24">
-        <v>0.138</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2450,16 +2450,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>-0.012</v>
+        <v>-0.089</v>
       </c>
       <c r="C25">
-        <v>0.502</v>
+        <v>0.21</v>
       </c>
       <c r="D25">
-        <v>13157.78</v>
+        <v>19753.25</v>
       </c>
       <c r="E25">
-        <v>0.157</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2467,16 +2467,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>-0.036</v>
+        <v>-0.111</v>
       </c>
       <c r="C26">
-        <v>0.385</v>
+        <v>0.152</v>
       </c>
       <c r="D26">
-        <v>12501.32</v>
+        <v>26852.18</v>
       </c>
       <c r="E26">
-        <v>0.155</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2484,16 +2484,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>-0.027</v>
+        <v>-0.074</v>
       </c>
       <c r="C27">
-        <v>0.422</v>
+        <v>0.247</v>
       </c>
       <c r="D27">
-        <v>11595.79</v>
+        <v>20051.05</v>
       </c>
       <c r="E27">
-        <v>0.15</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2501,16 +2501,16 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>-0.028</v>
+        <v>-0.074</v>
       </c>
       <c r="C28">
-        <v>0.43</v>
+        <v>0.272</v>
       </c>
       <c r="D28">
-        <v>12176.76</v>
+        <v>15647.62</v>
       </c>
       <c r="E28">
-        <v>0.155</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2518,16 +2518,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>-0.032</v>
+        <v>-0.03</v>
       </c>
       <c r="C29">
-        <v>0.399</v>
+        <v>0.448</v>
       </c>
       <c r="D29">
-        <v>12004.43</v>
+        <v>15026.45</v>
       </c>
       <c r="E29">
-        <v>0.152</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2535,16 +2535,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>-0.023</v>
+        <v>-0.049</v>
       </c>
       <c r="C30">
-        <v>0.48</v>
+        <v>0.386</v>
       </c>
       <c r="D30">
-        <v>9728.13</v>
+        <v>12632.25</v>
       </c>
       <c r="E30">
-        <v>0.112</v>
+        <v>0.088</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2552,16 +2552,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>-0.013</v>
+        <v>-0.074</v>
       </c>
       <c r="C31">
-        <v>0.528</v>
+        <v>0.266</v>
       </c>
       <c r="D31">
-        <v>12712.05</v>
+        <v>18750.56</v>
       </c>
       <c r="E31">
-        <v>0.153</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2569,16 +2569,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.001</v>
+        <v>-0.065</v>
       </c>
       <c r="C32">
-        <v>0.581</v>
+        <v>0.287</v>
       </c>
       <c r="D32">
-        <v>10699.32</v>
+        <v>16599.44</v>
       </c>
       <c r="E32">
-        <v>0.137</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2586,16 +2586,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>-0.03</v>
+        <v>-0.123</v>
       </c>
       <c r="C33">
-        <v>0.413</v>
+        <v>0.114</v>
       </c>
       <c r="D33">
-        <v>14584.53</v>
+        <v>33396.69</v>
       </c>
       <c r="E33">
-        <v>0.182</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2603,16 +2603,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>-0.022</v>
+        <v>-0.098</v>
       </c>
       <c r="C34">
-        <v>0.414</v>
+        <v>0.18</v>
       </c>
       <c r="D34">
-        <v>15109.94</v>
+        <v>22887.64</v>
       </c>
       <c r="E34">
-        <v>0.174</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2620,16 +2620,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>-0.024</v>
+        <v>-0.081</v>
       </c>
       <c r="C35">
-        <v>0.448</v>
+        <v>0.23</v>
       </c>
       <c r="D35">
-        <v>11235.1</v>
+        <v>19831.57</v>
       </c>
       <c r="E35">
-        <v>0.143</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2637,16 +2637,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>-0.004</v>
+        <v>-0.088</v>
       </c>
       <c r="C36">
-        <v>0.614</v>
+        <v>0.221</v>
       </c>
       <c r="D36">
-        <v>8124.78</v>
+        <v>13403.95</v>
       </c>
       <c r="E36">
-        <v>0.104</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2654,16 +2654,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>-0.029</v>
+        <v>-0.071</v>
       </c>
       <c r="C37">
-        <v>0.41</v>
+        <v>0.268</v>
       </c>
       <c r="D37">
-        <v>12628.54</v>
+        <v>17775.72</v>
       </c>
       <c r="E37">
-        <v>0.158</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2671,16 +2671,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>-0.031</v>
+        <v>-0.094</v>
       </c>
       <c r="C38">
-        <v>0.422</v>
+        <v>0.19</v>
       </c>
       <c r="D38">
-        <v>11257.72</v>
+        <v>25123.68</v>
       </c>
       <c r="E38">
-        <v>0.138</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2688,16 +2688,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>-0.035</v>
+        <v>-0.067</v>
       </c>
       <c r="C39">
-        <v>0.373</v>
+        <v>0.287</v>
       </c>
       <c r="D39">
-        <v>14490.12</v>
+        <v>18360.34</v>
       </c>
       <c r="E39">
-        <v>0.184</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2705,16 +2705,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>-0.028</v>
+        <v>-0.079</v>
       </c>
       <c r="C40">
-        <v>0.422</v>
+        <v>0.243</v>
       </c>
       <c r="D40">
-        <v>11467.11</v>
+        <v>19085.95</v>
       </c>
       <c r="E40">
-        <v>0.141</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2722,16 +2722,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>-0.03</v>
+        <v>-0.093</v>
       </c>
       <c r="C41">
-        <v>0.401</v>
+        <v>0.195</v>
       </c>
       <c r="D41">
-        <v>14049.9</v>
+        <v>20385.91</v>
       </c>
       <c r="E41">
-        <v>0.176</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2739,16 +2739,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>-0.019</v>
+        <v>-0.024</v>
       </c>
       <c r="C42">
-        <v>0.484</v>
+        <v>0.488</v>
       </c>
       <c r="D42">
-        <v>10997.04</v>
+        <v>16035.57</v>
       </c>
       <c r="E42">
-        <v>0.136</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2756,16 +2756,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>-0.013</v>
+        <v>-0.048</v>
       </c>
       <c r="C43">
-        <v>0.553</v>
+        <v>0.382</v>
       </c>
       <c r="D43">
-        <v>8782.25</v>
+        <v>13755.75</v>
       </c>
       <c r="E43">
-        <v>0.102</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2773,16 +2773,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>-0.0</v>
+        <v>-0.053</v>
       </c>
       <c r="C44">
-        <v>0.642</v>
+        <v>0.36</v>
       </c>
       <c r="D44">
-        <v>9211.92</v>
+        <v>14642.45</v>
       </c>
       <c r="E44">
-        <v>0.109</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2790,16 +2790,16 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>-0.019</v>
+        <v>-0.067</v>
       </c>
       <c r="C45">
-        <v>0.496</v>
+        <v>0.293</v>
       </c>
       <c r="D45">
-        <v>10676.23</v>
+        <v>16418.53</v>
       </c>
       <c r="E45">
-        <v>0.125</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2807,16 +2807,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.028</v>
+        <v>-0.052</v>
       </c>
       <c r="C46">
-        <v>0.43</v>
+        <v>0.345</v>
       </c>
       <c r="D46">
-        <v>11054.61</v>
+        <v>14396.48</v>
       </c>
       <c r="E46">
-        <v>0.132</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2824,16 +2824,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>-0.047</v>
+        <v>0.0</v>
       </c>
       <c r="C47">
-        <v>0.32</v>
+        <v>0.652</v>
       </c>
       <c r="D47">
-        <v>14628.0</v>
+        <v>13923.2</v>
       </c>
       <c r="E47">
-        <v>0.177</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2841,16 +2841,16 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>-0.007</v>
+        <v>-0.09</v>
       </c>
       <c r="C48">
-        <v>0.56</v>
+        <v>0.205</v>
       </c>
       <c r="D48">
-        <v>9559.91</v>
+        <v>19264.21</v>
       </c>
       <c r="E48">
-        <v>0.122</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2858,16 +2858,16 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>-0.043</v>
+        <v>-0.066</v>
       </c>
       <c r="C49">
-        <v>0.36</v>
+        <v>0.294</v>
       </c>
       <c r="D49">
-        <v>14138.13</v>
+        <v>17966.77</v>
       </c>
       <c r="E49">
-        <v>0.16</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2875,16 +2875,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>-0.019</v>
+        <v>-0.069</v>
       </c>
       <c r="C50">
-        <v>0.455</v>
+        <v>0.264</v>
       </c>
       <c r="D50">
-        <v>14884.13</v>
+        <v>20938.72</v>
       </c>
       <c r="E50">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2892,16 +2892,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>-0.021</v>
+        <v>-0.078</v>
       </c>
       <c r="C51">
-        <v>0.454</v>
+        <v>0.248</v>
       </c>
       <c r="D51">
-        <v>11526.33</v>
+        <v>15731.85</v>
       </c>
       <c r="E51">
-        <v>0.145</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2909,16 +2909,16 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>-0.023</v>
+        <v>-0.046</v>
       </c>
       <c r="C52">
-        <v>0.486</v>
+        <v>0.377</v>
       </c>
       <c r="D52">
-        <v>10790.63</v>
+        <v>12576.09</v>
       </c>
       <c r="E52">
-        <v>0.114</v>
+        <v>0.088</v>
       </c>
     </row>
   </sheetData>
